--- a/최종_인프라그래프데이터_전처리결과.xlsx
+++ b/최종_인프라그래프데이터_전처리결과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>작약꽃축제A</t>
+          <t>우주항공축제</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>작약꽃축제B</t>
+          <t>작약꽃축제A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>작약꽃축제C</t>
+          <t>작약꽃축제B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,28 +552,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>별빛축제</t>
+          <t>작약꽃축제C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>식당</t>
+          <t>숙소</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>오미자축제</t>
+          <t>별빛축제</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>옥정호 벚꽃축제</t>
+          <t>오미자축제</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>와인페스타</t>
+          <t>옥정호 벚꽃축제</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>작약꽃축제A</t>
+          <t>와인페스타</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>작약꽃축제B</t>
+          <t>우주항공축제</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,21 +642,51 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>작약꽃축제A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>식당</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>작약꽃축제B</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>식당</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>작약꽃축제C</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>식당</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>식당</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>73</v>
       </c>
     </row>
